--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.98</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.57</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>181.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.96</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>83.57</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.76</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.51</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.82</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1634,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.14</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1650,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.51</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.82</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5.14</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1875,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.800000000000001</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1976,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.51</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -1859,14 +1992,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.82</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="6">
@@ -1875,14 +2008,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.14</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7">
@@ -1891,13 +2024,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>8.800000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.51</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.82</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.14</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1507,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +2130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600398-海澜之家.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.59</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3.51</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.82</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5.14</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -616,7 +633,917 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1410,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2130,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2298,98 +3225,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1781</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>